--- a/Overall plan.xlsx
+++ b/Overall plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s220780\Desktop\Cross platform development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s220780\Desktop\Cross platform development\Cross-Platform-Development-Assessment-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3C1B66-7835-455A-83CB-86767E556DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE183AE0-5CD4-4C4A-BC14-C9A1E370D71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C8BB62C-4618-4BF7-9882-E08B8E8EA599}"/>
   </bookViews>
@@ -1180,7 +1180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1283,11 +1283,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1357,7 +1394,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1391,6 +1427,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
@@ -1767,11 +1806,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC9547A-9E45-4780-A306-18E91F6754AB}">
   <dimension ref="B2:E264"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="4.42578125" customWidth="1"/>
     <col min="5" max="5" width="159" customWidth="1"/>
@@ -1779,7 +1818,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
@@ -1788,13 +1827,13 @@
     </row>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="23" t="s">
@@ -1802,7 +1841,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="22" t="s">
@@ -1810,7 +1849,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="10" t="s">
@@ -1818,13 +1857,13 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="10"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="22" t="s">
@@ -1832,285 +1871,285 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="48"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="50"/>
+    </row>
+    <row r="10" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="48"/>
-    </row>
-    <row r="11" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="50"/>
+    </row>
+    <row r="11" spans="2:5" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="48"/>
-    </row>
-    <row r="12" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="2:5" ht="32.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="48"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="48"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="50"/>
+    </row>
+    <row r="14" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="54"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="56"/>
+    </row>
+    <row r="15" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="32.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="54"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="56"/>
+    </row>
+    <row r="17" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="18"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="54"/>
-    </row>
-    <row r="19" spans="2:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="56"/>
+    </row>
+    <row r="19" spans="2:5" ht="48.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="46"/>
-    </row>
-    <row r="20" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="48"/>
+    </row>
+    <row r="20" spans="2:5" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="46"/>
-    </row>
-    <row r="21" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="48"/>
+    </row>
+    <row r="21" spans="2:5" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="46"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="48"/>
+    </row>
+    <row r="22" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="54"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="56"/>
+    </row>
+    <row r="24" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="46"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="48"/>
+    </row>
+    <row r="25" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="46"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="48"/>
+    </row>
+    <row r="26" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="20"/>
       <c r="E26" s="21"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="54"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="56"/>
+    </row>
+    <row r="28" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="18"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="54"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="56"/>
+    </row>
+    <row r="30" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="18"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="54"/>
-    </row>
-    <row r="32" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="56"/>
+    </row>
+    <row r="32" spans="2:5" ht="33" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="46"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="48"/>
+    </row>
+    <row r="33" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="46"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="48"/>
+    </row>
+    <row r="34" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="46"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="48"/>
+    </row>
+    <row r="35" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="46"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="48"/>
+    </row>
+    <row r="36" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="47" t="s">
+      <c r="D37" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="48"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="50"/>
+    </row>
+    <row r="38" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="56"/>
+    </row>
+    <row r="39" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="54"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="56"/>
+    </row>
+    <row r="40" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="53" t="s">
+      <c r="D40" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="54"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="56"/>
+    </row>
+    <row r="41" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="18"/>
       <c r="E41" s="19"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="48"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="50"/>
+    </row>
+    <row r="43" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="E43" s="54"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="56"/>
+    </row>
+    <row r="44" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="53" t="s">
+      <c r="D44" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="54"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="56"/>
+    </row>
+    <row r="45" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="18"/>
       <c r="E45" s="19"/>
     </row>
-    <row r="46" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="22" t="s">
@@ -2118,7 +2157,7 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="10" t="s">
@@ -2126,7 +2165,7 @@
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="15" t="s">
@@ -2134,7 +2173,7 @@
       </c>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="15" t="s">
@@ -2142,7 +2181,7 @@
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="15" t="s">
@@ -2150,7 +2189,7 @@
       </c>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="15" t="s">
@@ -2158,7 +2197,7 @@
       </c>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="15" t="s">
@@ -2166,7 +2205,7 @@
       </c>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="15" t="s">
@@ -2174,13 +2213,13 @@
       </c>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="15"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="22" t="s">
@@ -2188,7 +2227,7 @@
       </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="10" t="s">
@@ -2196,7 +2235,7 @@
       </c>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="15" t="s">
@@ -2204,7 +2243,7 @@
       </c>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="15" t="s">
@@ -2212,7 +2251,7 @@
       </c>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="15" t="s">
@@ -2220,7 +2259,7 @@
       </c>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="15" t="s">
@@ -2228,7 +2267,7 @@
       </c>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="15" t="s">
@@ -2236,7 +2275,7 @@
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="15" t="s">
@@ -2244,13 +2283,13 @@
       </c>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="15"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="22" t="s">
@@ -2258,7 +2297,7 @@
       </c>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="10" t="s">
@@ -2266,15 +2305,15 @@
       </c>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="53" t="s">
+      <c r="D66" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="E66" s="54"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="56"/>
+    </row>
+    <row r="67" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="15" t="s">
@@ -2282,7 +2321,7 @@
       </c>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="15" t="s">
@@ -2290,7 +2329,7 @@
       </c>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="15" t="s">
@@ -2298,447 +2337,447 @@
       </c>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="15"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="47" t="s">
+      <c r="D71" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="E71" s="48"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="50"/>
+    </row>
+    <row r="72" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="53" t="s">
+      <c r="D72" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="E72" s="54"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="56"/>
+    </row>
+    <row r="73" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="45" t="s">
+      <c r="D73" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="E73" s="46"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="48"/>
+    </row>
+    <row r="74" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="45" t="s">
+      <c r="D74" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="E74" s="46"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="48"/>
+    </row>
+    <row r="75" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="45" t="s">
+      <c r="D75" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="E75" s="46"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="48"/>
+    </row>
+    <row r="76" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="E76" s="46"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="48"/>
+    </row>
+    <row r="77" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="18"/>
       <c r="E77" s="19"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="53" t="s">
+      <c r="D78" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="E78" s="54"/>
-    </row>
-    <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E78" s="56"/>
+    </row>
+    <row r="79" spans="2:5" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="49" t="str">
+      <c r="D79" s="51" t="str">
         <f t="shared" ref="D79:D91" si="0">C206</f>
         <v>4.1.11.1: (ON DOUBLE CLICK - BUYER): Show the buyer's 1-slot inventory that will accept a potion / close it.</v>
       </c>
-      <c r="E79" s="50"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="52"/>
+    </row>
+    <row r="80" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="49" t="str">
+      <c r="D80" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.2: (ON DOUBLE CLICK - PLAYER): Show the player's 6-slot inventory / close it.</v>
       </c>
-      <c r="E80" s="50"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E80" s="52"/>
+    </row>
+    <row r="81" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="49" t="str">
+      <c r="D81" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.3: (ON DOUBLE CLICK - PICKUP INGREDIENT): Translate the ingredient's transform to the player in an arc, then add it to the inventory and make it disappear.</v>
       </c>
-      <c r="E81" s="50"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="52"/>
+    </row>
+    <row r="82" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="49" t="str">
+      <c r="D82" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.4: (ON DOUBLE CLICK - LABORATORY): Show the laboratory's 3-slot inventory / close it.</v>
       </c>
-      <c r="E82" s="50"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E82" s="52"/>
+    </row>
+    <row r="83" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="49" t="str">
+      <c r="D83" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.5: (ON DRAG &amp; DROP - INGREDIENT [GARDEN TO INVENTORY]): Create the ingredient in the inventory, remove it from the garden.</v>
       </c>
-      <c r="E83" s="50"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="52"/>
+    </row>
+    <row r="84" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="49" t="str">
+      <c r="D84" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.6: (ON DRAG &amp; DROP - INGREDIENT [INVENTORY TO LABORATORY]): Create the ingredient in the laboratory, remove it from the inventory.</v>
       </c>
-      <c r="E84" s="50"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="52"/>
+    </row>
+    <row r="85" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="49" t="str">
+      <c r="D85" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.7: (ON DRAG &amp; DROP - POTION [INVENTORY TO BUYER]): Create the potion in the buyer, remove it from the inventory.</v>
       </c>
-      <c r="E85" s="50"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="52"/>
+    </row>
+    <row r="86" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="49" t="str">
+      <c r="D86" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.8: (ON SINGLE CLICK - MENU): Open the main menu / close it.</v>
       </c>
-      <c r="E86" s="50"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E86" s="52"/>
+    </row>
+    <row r="87" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="51" t="str">
+      <c r="D87" s="53" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.8(a): Resume.</v>
       </c>
-      <c r="E87" s="52"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="54"/>
+    </row>
+    <row r="88" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="51" t="str">
+      <c r="D88" s="53" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.8(b): Exit.</v>
       </c>
-      <c r="E88" s="52"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="54"/>
+    </row>
+    <row r="89" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="49" t="str">
+      <c r="D89" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.9: (ON CHARACTER MOVE): Set player animation to walking and translate.</v>
       </c>
-      <c r="E89" s="50"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="52"/>
+    </row>
+    <row r="90" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="49" t="str">
+      <c r="D90" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.10: (ON CHARACTER JUMP): Set player animation to jumping and translate.</v>
       </c>
-      <c r="E90" s="50"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="52"/>
+    </row>
+    <row r="91" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="49" t="str">
+      <c r="D91" s="51" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.11: (ON CHARACTER STOP): Set player animation to idle and stop translate.</v>
       </c>
-      <c r="E91" s="50"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="52"/>
+    </row>
+    <row r="92" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="40"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D92" s="38"/>
+      <c r="E92" s="39"/>
+    </row>
+    <row r="93" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="53" t="s">
+      <c r="D93" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="E93" s="54"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E93" s="56"/>
+    </row>
+    <row r="94" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="45" t="s">
+      <c r="D94" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="E94" s="46"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E94" s="48"/>
+    </row>
+    <row r="95" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="45" t="s">
+      <c r="D95" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="E95" s="46"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E95" s="48"/>
+    </row>
+    <row r="96" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="45" t="s">
+      <c r="D96" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="E96" s="46"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E96" s="48"/>
+    </row>
+    <row r="97" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="45" t="s">
+      <c r="D97" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="E97" s="46"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="48"/>
+    </row>
+    <row r="98" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="18"/>
       <c r="E98" s="19"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="18"/>
-      <c r="E99" s="44" t="s">
+      <c r="E99" s="43" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="42" t="str">
+      <c r="D100" s="42"/>
+      <c r="E100" s="41" t="str">
         <f>D73</f>
         <v>3.1.5.2(a)(i): Player inventory</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="42" t="str">
+      <c r="D101" s="42"/>
+      <c r="E101" s="41" t="str">
         <f>D74</f>
         <v>3.1.5.2(a)(ii): Buyer inventory</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="42" t="str">
+      <c r="D102" s="42"/>
+      <c r="E102" s="41" t="str">
         <f>D75</f>
         <v>3.1.5.2(a)(iii): Laboratory inventory</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="42" t="str">
+      <c r="D103" s="42"/>
+      <c r="E103" s="41" t="str">
         <f>D76</f>
         <v>3.1.5.2(a)(iv): Main menu with resume/ exit buttons</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="42" t="str">
+      <c r="D104" s="42"/>
+      <c r="E104" s="41" t="str">
         <f>D94</f>
         <v>3.1.5.2(c)(i): 3D scene</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="42" t="str">
+      <c r="D105" s="42"/>
+      <c r="E105" s="41" t="str">
         <f>D95</f>
         <v>3.1.5.2(c)(ii): Player character</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="42" t="str">
+      <c r="D106" s="42"/>
+      <c r="E106" s="41" t="str">
         <f>D96</f>
         <v>3.1.5.2(c)(iii): Buyer object</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="42" t="str">
+      <c r="D107" s="42"/>
+      <c r="E107" s="41" t="str">
         <f>D97</f>
         <v>3.1.5.2(c)(iv): Ingredient pickup object</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="42" t="str">
+      <c r="D108" s="42"/>
+      <c r="E108" s="41" t="str">
         <f t="shared" ref="E108:E120" si="1">D79</f>
         <v>4.1.11.1: (ON DOUBLE CLICK - BUYER): Show the buyer's 1-slot inventory that will accept a potion / close it.</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="42" t="str">
+      <c r="D109" s="42"/>
+      <c r="E109" s="41" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.2: (ON DOUBLE CLICK - PLAYER): Show the player's 6-slot inventory / close it.</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="42" t="str">
+      <c r="D110" s="42"/>
+      <c r="E110" s="41" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.3: (ON DOUBLE CLICK - PICKUP INGREDIENT): Translate the ingredient's transform to the player in an arc, then add it to the inventory and make it disappear.</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="42" t="str">
+      <c r="D111" s="42"/>
+      <c r="E111" s="41" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.4: (ON DOUBLE CLICK - LABORATORY): Show the laboratory's 3-slot inventory / close it.</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="42" t="str">
+      <c r="D112" s="42"/>
+      <c r="E112" s="41" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.5: (ON DRAG &amp; DROP - INGREDIENT [GARDEN TO INVENTORY]): Create the ingredient in the inventory, remove it from the garden.</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="42" t="str">
+      <c r="D113" s="42"/>
+      <c r="E113" s="41" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.6: (ON DRAG &amp; DROP - INGREDIENT [INVENTORY TO LABORATORY]): Create the ingredient in the laboratory, remove it from the inventory.</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="42" t="str">
+      <c r="D114" s="42"/>
+      <c r="E114" s="41" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.7: (ON DRAG &amp; DROP - POTION [INVENTORY TO BUYER]): Create the potion in the buyer, remove it from the inventory.</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="42" t="str">
+      <c r="D115" s="42"/>
+      <c r="E115" s="41" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.8: (ON SINGLE CLICK - MENU): Open the main menu / close it.</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="41" t="str">
+      <c r="D116" s="42"/>
+      <c r="E116" s="40" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.8(a): Resume.</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="43"/>
-      <c r="E117" s="41" t="str">
+      <c r="D117" s="42"/>
+      <c r="E117" s="40" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.8(b): Exit.</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="42" t="str">
+      <c r="D118" s="42"/>
+      <c r="E118" s="41" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.9: (ON CHARACTER MOVE): Set player animation to walking and translate.</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="43"/>
-      <c r="E119" s="42" t="str">
+      <c r="D119" s="42"/>
+      <c r="E119" s="41" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.10: (ON CHARACTER JUMP): Set player animation to jumping and translate.</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="43"/>
-      <c r="E120" s="42" t="str">
+      <c r="D120" s="42"/>
+      <c r="E120" s="41" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.11: (ON CHARACTER STOP): Set player animation to idle and stop translate.</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="18"/>
       <c r="E121" s="19"/>
     </row>
-    <row r="122" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="22" t="s">
@@ -2746,7 +2785,7 @@
       </c>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="10" t="s">
@@ -2754,13 +2793,13 @@
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="10"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="22" t="s">
@@ -2768,7 +2807,7 @@
       </c>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="10" t="s">
@@ -2776,21 +2815,21 @@
       </c>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="11"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:5" ht="21" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="33" t="s">
+      <c r="D128" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -2798,7 +2837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -2806,7 +2845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="4"/>
@@ -2814,15 +2853,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:5" ht="21" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="34" t="s">
+      <c r="D132" s="33" t="s">
         <v>3</v>
       </c>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -2830,7 +2869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -2838,7 +2877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -2846,37 +2885,37 @@
         <v>105</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="35" t="s">
+      <c r="E136" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="35" t="s">
+      <c r="E137" s="34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="35" t="s">
+      <c r="E138" s="34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="35"/>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E139" s="34"/>
+    </row>
+    <row r="140" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -2884,37 +2923,37 @@
         <v>106</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="35" t="s">
+      <c r="E141" s="34" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="35" t="s">
+      <c r="E142" s="34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="35" t="s">
+      <c r="E143" s="34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="35"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E144" s="34"/>
+    </row>
+    <row r="145" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -2922,37 +2961,37 @@
         <v>107</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="35" t="s">
+      <c r="E146" s="34" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="35" t="s">
+      <c r="E147" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="35" t="s">
+      <c r="E148" s="34" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="14"/>
     </row>
-    <row r="150" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -2960,7 +2999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -2968,7 +3007,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -2976,13 +3015,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="14"/>
     </row>
-    <row r="154" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -2990,21 +3029,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="36" t="s">
+      <c r="E155" s="35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="14"/>
     </row>
-    <row r="157" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -3012,7 +3051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -3020,13 +3059,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="14"/>
     </row>
-    <row r="160" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -3034,21 +3073,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="36" t="s">
+      <c r="E161" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="14"/>
     </row>
-    <row r="163" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -3056,21 +3095,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="36" t="s">
+      <c r="E164" s="35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="14"/>
     </row>
-    <row r="166" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -3078,7 +3117,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -3090,648 +3129,648 @@
       <c r="B168" s="3"/>
       <c r="E168" s="12"/>
     </row>
-    <row r="169" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B169" s="3"/>
       <c r="C169" s="28" t="s">
         <v>4</v>
       </c>
       <c r="E169" s="7"/>
     </row>
-    <row r="170" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B170" s="3"/>
       <c r="C170" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B171" s="3"/>
       <c r="C171" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B172" s="3"/>
       <c r="C172" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="C173" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="C174" s="9"/>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B175" s="3"/>
       <c r="C175" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" ht="33" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
-      <c r="C176" s="61" t="s">
+      <c r="C176" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D176" s="61"/>
-      <c r="E176" s="62"/>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D176" s="63"/>
+      <c r="E176" s="64"/>
+    </row>
+    <row r="177" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="C177" s="9"/>
       <c r="E177" s="5"/>
     </row>
-    <row r="178" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B178" s="3"/>
       <c r="C178" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
       <c r="C179" s="9" t="s">
         <v>122</v>
       </c>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="C180" s="9"/>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B181" s="3"/>
       <c r="C181" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="C182" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
       <c r="C183" s="9"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B184" s="3"/>
       <c r="C184" s="29" t="s">
         <v>12</v>
       </c>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
-      <c r="C185" s="63" t="s">
+      <c r="C185" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D185" s="63"/>
-      <c r="E185" s="64"/>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D185" s="65"/>
+      <c r="E185" s="66"/>
+    </row>
+    <row r="186" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="C186" s="9"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B187" s="3"/>
       <c r="C187" s="29" t="s">
         <v>13</v>
       </c>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
-      <c r="C188" s="61" t="s">
+      <c r="C188" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="D188" s="61"/>
-      <c r="E188" s="62"/>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D188" s="63"/>
+      <c r="E188" s="64"/>
+    </row>
+    <row r="189" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
-      <c r="C189" s="61" t="s">
+      <c r="C189" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="D189" s="61"/>
-      <c r="E189" s="62"/>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D189" s="63"/>
+      <c r="E189" s="64"/>
+    </row>
+    <row r="190" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
-      <c r="C190" s="61" t="s">
+      <c r="C190" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D190" s="61"/>
-      <c r="E190" s="62"/>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D190" s="63"/>
+      <c r="E190" s="64"/>
+    </row>
+    <row r="191" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
       <c r="C191" s="10"/>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B192" s="3"/>
       <c r="C192" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
       <c r="C193" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
-      <c r="C194" s="37" t="str">
+      <c r="C194" s="36" t="str">
         <f>D23</f>
         <v>3.1.2.5 (d): Animation: Player (idle, walk, jump), ingredients (move onto player and disappear [when picked up])</v>
       </c>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
-      <c r="C195" s="37" t="str">
+      <c r="C195" s="36" t="str">
         <f>D24</f>
         <v>3.1.2.5 (d)(i): Player (idle, walk, jump).</v>
       </c>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
-      <c r="C196" s="37" t="str">
+      <c r="C196" s="36" t="str">
         <f>D25</f>
         <v>3.1.2.5 (d)(ii): Ingredients (translate on top of player and disappear when picked up)</v>
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="C197" s="10"/>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B198" s="3"/>
       <c r="C198" s="29" t="s">
         <v>15</v>
       </c>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
       <c r="C199" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
       <c r="C200" s="15" t="s">
         <v>141</v>
       </c>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
-      <c r="C201" s="59" t="s">
+      <c r="C201" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="D201" s="59"/>
-      <c r="E201" s="60"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D201" s="61"/>
+      <c r="E201" s="62"/>
+    </row>
+    <row r="202" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
-      <c r="C202" s="57" t="s">
+      <c r="C202" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="D202" s="57"/>
-      <c r="E202" s="58"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D202" s="59"/>
+      <c r="E202" s="60"/>
+    </row>
+    <row r="203" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="C203" s="10"/>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B204" s="3"/>
       <c r="C204" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
       <c r="C205" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
       <c r="C206" s="15" t="s">
         <v>134</v>
       </c>
       <c r="E206" s="5"/>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
       <c r="C207" s="15" t="s">
         <v>133</v>
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
       <c r="C208" s="15" t="s">
         <v>129</v>
       </c>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
       <c r="C209" s="15" t="s">
         <v>135</v>
       </c>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="C210" s="15" t="s">
         <v>130</v>
       </c>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
       <c r="C211" s="15" t="s">
         <v>131</v>
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
       <c r="C212" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
       <c r="C213" s="15" t="s">
         <v>136</v>
       </c>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
-      <c r="C214" s="38" t="s">
+      <c r="C214" s="37" t="s">
         <v>139</v>
       </c>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
-      <c r="C215" s="38" t="s">
+      <c r="C215" s="37" t="s">
         <v>140</v>
       </c>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
       <c r="C216" s="15" t="s">
         <v>174</v>
       </c>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
       <c r="C217" s="15" t="s">
         <v>173</v>
       </c>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
       <c r="C218" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
       <c r="C219" s="15"/>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B220" s="3"/>
       <c r="C220" s="30" t="s">
         <v>18</v>
       </c>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B221" s="3"/>
       <c r="C221" s="29" t="s">
         <v>19</v>
       </c>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B222" s="3"/>
       <c r="C222" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B223" s="3"/>
-      <c r="C223" s="55" t="s">
+      <c r="C223" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D223" s="55"/>
-      <c r="E223" s="56"/>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D223" s="57"/>
+      <c r="E223" s="58"/>
+    </row>
+    <row r="224" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
       <c r="C224" s="10"/>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B225" s="3"/>
       <c r="C225" s="29" t="s">
         <v>21</v>
       </c>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B226" s="3"/>
       <c r="C226" s="29" t="s">
         <v>22</v>
       </c>
       <c r="E226" s="5"/>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B227" s="3"/>
-      <c r="C227" s="55" t="s">
+      <c r="C227" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="D227" s="55"/>
-      <c r="E227" s="56"/>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D227" s="57"/>
+      <c r="E227" s="58"/>
+    </row>
+    <row r="228" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B228" s="3"/>
       <c r="C228" s="10"/>
       <c r="E228" s="5"/>
     </row>
-    <row r="229" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B229" s="3"/>
       <c r="C229" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E229" s="5"/>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B230" s="3"/>
-      <c r="C230" s="55" t="s">
+      <c r="C230" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D230" s="55"/>
-      <c r="E230" s="56"/>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D230" s="57"/>
+      <c r="E230" s="58"/>
+    </row>
+    <row r="231" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B231" s="3"/>
       <c r="C231" s="10"/>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B232" s="3"/>
       <c r="C232" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E232" s="5"/>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B233" s="3"/>
-      <c r="C233" s="55" t="s">
+      <c r="C233" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D233" s="55"/>
-      <c r="E233" s="56"/>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D233" s="57"/>
+      <c r="E233" s="58"/>
+    </row>
+    <row r="234" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B234" s="3"/>
       <c r="C234" s="10"/>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B235" s="3"/>
       <c r="C235" s="29" t="s">
         <v>25</v>
       </c>
       <c r="E235" s="5"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B236" s="3"/>
-      <c r="C236" s="55" t="s">
+      <c r="C236" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D236" s="55"/>
-      <c r="E236" s="56"/>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D236" s="57"/>
+      <c r="E236" s="58"/>
+    </row>
+    <row r="237" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B237" s="3"/>
       <c r="C237" s="10"/>
       <c r="E237" s="5"/>
     </row>
-    <row r="238" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B238" s="3"/>
       <c r="C238" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E238" s="5"/>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B239" s="3"/>
-      <c r="C239" s="55" t="s">
+      <c r="C239" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D239" s="55"/>
-      <c r="E239" s="56"/>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D239" s="57"/>
+      <c r="E239" s="58"/>
+    </row>
+    <row r="240" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B240" s="3"/>
       <c r="C240" s="10"/>
       <c r="E240" s="5"/>
     </row>
-    <row r="241" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B241" s="3"/>
       <c r="C241" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E241" s="5"/>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B242" s="3"/>
-      <c r="C242" s="55" t="s">
+      <c r="C242" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D242" s="55"/>
-      <c r="E242" s="56"/>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D242" s="57"/>
+      <c r="E242" s="58"/>
+    </row>
+    <row r="243" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B243" s="3"/>
       <c r="E243" s="5"/>
     </row>
-    <row r="244" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B244" s="3"/>
       <c r="C244" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E244" s="5"/>
     </row>
-    <row r="245" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B245" s="3"/>
       <c r="C245" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E245" s="5"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B246" s="3"/>
-      <c r="C246" s="55" t="s">
+      <c r="C246" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D246" s="55"/>
-      <c r="E246" s="56"/>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D246" s="57"/>
+      <c r="E246" s="58"/>
+    </row>
+    <row r="247" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B247" s="3"/>
       <c r="C247" s="10"/>
       <c r="E247" s="5"/>
     </row>
-    <row r="248" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B248" s="3"/>
       <c r="C248" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E248" s="5"/>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B249" s="3"/>
-      <c r="C249" s="55" t="s">
+      <c r="C249" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D249" s="55"/>
-      <c r="E249" s="56"/>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D249" s="57"/>
+      <c r="E249" s="58"/>
+    </row>
+    <row r="250" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B250" s="3"/>
       <c r="C250" s="10"/>
       <c r="E250" s="5"/>
     </row>
-    <row r="251" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B251" s="3"/>
       <c r="C251" s="29" t="s">
         <v>31</v>
       </c>
       <c r="E251" s="5"/>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B252" s="3"/>
-      <c r="C252" s="55" t="s">
+      <c r="C252" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D252" s="55"/>
-      <c r="E252" s="56"/>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D252" s="57"/>
+      <c r="E252" s="58"/>
+    </row>
+    <row r="253" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B253" s="3"/>
       <c r="E253" s="5"/>
     </row>
-    <row r="254" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B254" s="3"/>
       <c r="C254" s="28" t="s">
         <v>32</v>
       </c>
       <c r="E254" s="5"/>
     </row>
-    <row r="255" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B255" s="3"/>
       <c r="C255" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E255" s="5"/>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B256" s="3"/>
-      <c r="C256" s="55" t="s">
+      <c r="C256" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D256" s="55"/>
-      <c r="E256" s="56"/>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D256" s="57"/>
+      <c r="E256" s="58"/>
+    </row>
+    <row r="257" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B257" s="3"/>
       <c r="E257" s="5"/>
     </row>
-    <row r="258" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B258" s="3"/>
       <c r="C258" s="28" t="s">
         <v>34</v>
       </c>
       <c r="E258" s="5"/>
     </row>
-    <row r="259" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B259" s="3"/>
       <c r="C259" s="29" t="s">
         <v>35</v>
       </c>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B260" s="3"/>
-      <c r="C260" s="55" t="s">
+      <c r="C260" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="D260" s="55"/>
-      <c r="E260" s="56"/>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D260" s="57"/>
+      <c r="E260" s="58"/>
+    </row>
+    <row r="261" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B261" s="3"/>
       <c r="C261" s="10"/>
       <c r="E261" s="5"/>
     </row>
-    <row r="262" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B262" s="3"/>
       <c r="C262" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E262" s="5"/>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B263" s="3"/>
-      <c r="C263" s="55" t="s">
+      <c r="C263" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D263" s="55"/>
-      <c r="E263" s="56"/>
+      <c r="D263" s="57"/>
+      <c r="E263" s="58"/>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B264" s="4"/>

--- a/Overall plan.xlsx
+++ b/Overall plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s220780\Desktop\Cross platform development\Cross-Platform-Development-Assessment-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE183AE0-5CD4-4C4A-BC14-C9A1E370D71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F0013-4E58-447F-87FC-CAE2D352B366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C8BB62C-4618-4BF7-9882-E08B8E8EA599}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Assessment 3: Write a Technical Design Document</t>
   </si>
@@ -925,9 +925,6 @@
     </r>
   </si>
   <si>
-    <t>3.1.3.1: Environment (an object or series of objects to represent the house scene - there is no interactivity with the house background itself)</t>
-  </si>
-  <si>
     <t>3.1.3.2: Characters (player - need an object with idle/move/jump animations)</t>
   </si>
   <si>
@@ -995,6 +992,15 @@
   </si>
   <si>
     <t>4.1.11.11: (ON CHARACTER STOP): Set player animation to idle and stop translate.</t>
+  </si>
+  <si>
+    <t>3.1.3.1(a): Background: An object or series of objects to represent the house scene - there is no interactivity with the house background itself)</t>
+  </si>
+  <si>
+    <t>3.1.3.1(b): Play surface: A plane on which the character will walk</t>
+  </si>
+  <si>
+    <t>3.1.3.1: Environment</t>
   </si>
 </sst>
 </file>
@@ -1804,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC9547A-9E45-4780-A306-18E91F6754AB}">
-  <dimension ref="B2:E264"/>
+  <dimension ref="B2:E266"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
@@ -1853,7 +1859,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -2157,7 +2163,7 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="10" t="s">
@@ -2165,439 +2171,437 @@
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="15" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="15" t="s">
-        <v>153</v>
+      <c r="D49" s="37" t="s">
+        <v>175</v>
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="15" t="s">
-        <v>101</v>
+      <c r="D50" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="15" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="15" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="15"/>
+      <c r="D54" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="22" t="s">
-        <v>52</v>
+      <c r="D55" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="D56" s="15"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="15" t="s">
-        <v>75</v>
+      <c r="D57" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="15" t="s">
-        <v>77</v>
+      <c r="D58" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="15" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="15"/>
+      <c r="D63" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="22" t="s">
-        <v>53</v>
+      <c r="D64" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="10" t="s">
-        <v>154</v>
-      </c>
+      <c r="D65" s="15"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="E66" s="56"/>
+      <c r="D66" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="15" t="s">
-        <v>166</v>
+      <c r="D67" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="56"/>
+    </row>
+    <row r="69" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="15"/>
+      <c r="D70" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="E71" s="50"/>
+      <c r="D71" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="E72" s="56"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="E73" s="48"/>
+      <c r="D73" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" s="50"/>
     </row>
     <row r="74" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E74" s="48"/>
-    </row>
-    <row r="75" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" s="56"/>
+    </row>
+    <row r="75" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="47" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E75" s="48"/>
     </row>
-    <row r="76" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="47" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E76" s="48"/>
     </row>
-    <row r="77" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="19"/>
-    </row>
-    <row r="78" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" s="48"/>
+    </row>
+    <row r="78" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="E78" s="56"/>
-    </row>
-    <row r="79" spans="2:5" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" s="48"/>
+    </row>
+    <row r="79" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="51" t="str">
-        <f t="shared" ref="D79:D91" si="0">C206</f>
-        <v>4.1.11.1: (ON DOUBLE CLICK - BUYER): Show the buyer's 1-slot inventory that will accept a potion / close it.</v>
-      </c>
-      <c r="E79" s="52"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="19"/>
     </row>
     <row r="80" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>4.1.11.2: (ON DOUBLE CLICK - PLAYER): Show the player's 6-slot inventory / close it.</v>
-      </c>
-      <c r="E80" s="52"/>
-    </row>
-    <row r="81" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" s="56"/>
+    </row>
+    <row r="81" spans="2:5" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>4.1.11.3: (ON DOUBLE CLICK - PICKUP INGREDIENT): Translate the ingredient's transform to the player in an arc, then add it to the inventory and make it disappear.</v>
+        <f t="shared" ref="D81:D93" si="0">C208</f>
+        <v>4.1.11.1: (ON DOUBLE CLICK - BUYER): Show the buyer's 1-slot inventory that will accept a potion / close it.</v>
       </c>
       <c r="E81" s="52"/>
     </row>
-    <row r="82" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>4.1.11.4: (ON DOUBLE CLICK - LABORATORY): Show the laboratory's 3-slot inventory / close it.</v>
+        <v>4.1.11.2: (ON DOUBLE CLICK - PLAYER): Show the player's 6-slot inventory / close it.</v>
       </c>
       <c r="E82" s="52"/>
     </row>
-    <row r="83" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>4.1.11.5: (ON DRAG &amp; DROP - INGREDIENT [GARDEN TO INVENTORY]): Create the ingredient in the inventory, remove it from the garden.</v>
+        <v>4.1.11.3: (ON DOUBLE CLICK - PICKUP INGREDIENT): Translate the ingredient's transform to the player in an arc, then add it to the inventory and make it disappear.</v>
       </c>
       <c r="E83" s="52"/>
     </row>
-    <row r="84" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>4.1.11.6: (ON DRAG &amp; DROP - INGREDIENT [INVENTORY TO LABORATORY]): Create the ingredient in the laboratory, remove it from the inventory.</v>
+        <v>4.1.11.4: (ON DOUBLE CLICK - LABORATORY): Show the laboratory's 3-slot inventory / close it.</v>
       </c>
       <c r="E84" s="52"/>
     </row>
-    <row r="85" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>4.1.11.7: (ON DRAG &amp; DROP - POTION [INVENTORY TO BUYER]): Create the potion in the buyer, remove it from the inventory.</v>
+        <v>4.1.11.5: (ON DRAG &amp; DROP - INGREDIENT [GARDEN TO INVENTORY]): Create the ingredient in the inventory, remove it from the garden.</v>
       </c>
       <c r="E85" s="52"/>
     </row>
-    <row r="86" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>4.1.11.8: (ON SINGLE CLICK - MENU): Open the main menu / close it.</v>
+        <v>4.1.11.6: (ON DRAG &amp; DROP - INGREDIENT [INVENTORY TO LABORATORY]): Create the ingredient in the laboratory, remove it from the inventory.</v>
       </c>
       <c r="E86" s="52"/>
     </row>
-    <row r="87" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="53" t="str">
+      <c r="D87" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>4.1.11.7: (ON DRAG &amp; DROP - POTION [INVENTORY TO BUYER]): Create the potion in the buyer, remove it from the inventory.</v>
+      </c>
+      <c r="E87" s="52"/>
+    </row>
+    <row r="88" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>4.1.11.8: (ON SINGLE CLICK - MENU): Open the main menu / close it.</v>
+      </c>
+      <c r="E88" s="52"/>
+    </row>
+    <row r="89" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="53" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.8(a): Resume.</v>
       </c>
-      <c r="E87" s="54"/>
-    </row>
-    <row r="88" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="53" t="str">
+      <c r="E89" s="54"/>
+    </row>
+    <row r="90" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="53" t="str">
         <f t="shared" si="0"/>
         <v>4.1.11.8(b): Exit.</v>
       </c>
-      <c r="E88" s="54"/>
-    </row>
-    <row r="89" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>4.1.11.9: (ON CHARACTER MOVE): Set player animation to walking and translate.</v>
-      </c>
-      <c r="E89" s="52"/>
-    </row>
-    <row r="90" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="51" t="str">
-        <f t="shared" si="0"/>
-        <v>4.1.11.10: (ON CHARACTER JUMP): Set player animation to jumping and translate.</v>
-      </c>
-      <c r="E90" s="52"/>
-    </row>
-    <row r="91" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E90" s="54"/>
+    </row>
+    <row r="91" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>4.1.11.11: (ON CHARACTER STOP): Set player animation to idle and stop translate.</v>
+        <v>4.1.11.9: (ON CHARACTER MOVE): Set player animation to walking and translate.</v>
       </c>
       <c r="E91" s="52"/>
     </row>
-    <row r="92" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="39"/>
-    </row>
-    <row r="93" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>4.1.11.10: (ON CHARACTER JUMP): Set player animation to jumping and translate.</v>
+      </c>
+      <c r="E92" s="52"/>
+    </row>
+    <row r="93" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="E93" s="56"/>
+      <c r="D93" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>4.1.11.11: (ON CHARACTER STOP): Set player animation to idle and stop translate.</v>
+      </c>
+      <c r="E93" s="52"/>
     </row>
     <row r="94" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="E94" s="48"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="39"/>
     </row>
     <row r="95" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="E95" s="48"/>
-    </row>
-    <row r="96" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="56"/>
+    </row>
+    <row r="96" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E96" s="48"/>
     </row>
-    <row r="97" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="47" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E97" s="48"/>
     </row>
-    <row r="98" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="19"/>
-    </row>
-    <row r="99" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E98" s="48"/>
+    </row>
+    <row r="99" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="43" t="s">
-        <v>172</v>
-      </c>
+      <c r="D99" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E99" s="48"/>
     </row>
     <row r="100" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="41" t="str">
-        <f>D73</f>
-        <v>3.1.5.2(a)(i): Player inventory</v>
-      </c>
+      <c r="D100" s="18"/>
+      <c r="E100" s="19"/>
     </row>
     <row r="101" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="41" t="str">
-        <f>D74</f>
-        <v>3.1.5.2(a)(ii): Buyer inventory</v>
+      <c r="D101" s="18"/>
+      <c r="E101" s="43" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2606,7 +2610,7 @@
       <c r="D102" s="42"/>
       <c r="E102" s="41" t="str">
         <f>D75</f>
-        <v>3.1.5.2(a)(iii): Laboratory inventory</v>
+        <v>3.1.5.2(a)(i): Player inventory</v>
       </c>
     </row>
     <row r="103" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2615,7 +2619,7 @@
       <c r="D103" s="42"/>
       <c r="E103" s="41" t="str">
         <f>D76</f>
-        <v>3.1.5.2(a)(iv): Main menu with resume/ exit buttons</v>
+        <v>3.1.5.2(a)(ii): Buyer inventory</v>
       </c>
     </row>
     <row r="104" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2623,8 +2627,8 @@
       <c r="C104" s="3"/>
       <c r="D104" s="42"/>
       <c r="E104" s="41" t="str">
-        <f>D94</f>
-        <v>3.1.5.2(c)(i): 3D scene</v>
+        <f>D77</f>
+        <v>3.1.5.2(a)(iii): Laboratory inventory</v>
       </c>
     </row>
     <row r="105" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2632,8 +2636,8 @@
       <c r="C105" s="3"/>
       <c r="D105" s="42"/>
       <c r="E105" s="41" t="str">
-        <f>D95</f>
-        <v>3.1.5.2(c)(ii): Player character</v>
+        <f>D78</f>
+        <v>3.1.5.2(a)(iv): Main menu with resume/ exit buttons</v>
       </c>
     </row>
     <row r="106" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2642,7 +2646,7 @@
       <c r="D106" s="42"/>
       <c r="E106" s="41" t="str">
         <f>D96</f>
-        <v>3.1.5.2(c)(iii): Buyer object</v>
+        <v>3.1.5.2(c)(i): 3D scene</v>
       </c>
     </row>
     <row r="107" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2651,7 +2655,7 @@
       <c r="D107" s="42"/>
       <c r="E107" s="41" t="str">
         <f>D97</f>
-        <v>3.1.5.2(c)(iv): Ingredient pickup object</v>
+        <v>3.1.5.2(c)(ii): Player character</v>
       </c>
     </row>
     <row r="108" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2659,8 +2663,8 @@
       <c r="C108" s="3"/>
       <c r="D108" s="42"/>
       <c r="E108" s="41" t="str">
-        <f t="shared" ref="E108:E120" si="1">D79</f>
-        <v>4.1.11.1: (ON DOUBLE CLICK - BUYER): Show the buyer's 1-slot inventory that will accept a potion / close it.</v>
+        <f>D98</f>
+        <v>3.1.5.2(c)(iii): Buyer object</v>
       </c>
     </row>
     <row r="109" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2668,8 +2672,8 @@
       <c r="C109" s="3"/>
       <c r="D109" s="42"/>
       <c r="E109" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>4.1.11.2: (ON DOUBLE CLICK - PLAYER): Show the player's 6-slot inventory / close it.</v>
+        <f>D99</f>
+        <v>3.1.5.2(c)(iv): Ingredient pickup object</v>
       </c>
     </row>
     <row r="110" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2677,8 +2681,8 @@
       <c r="C110" s="3"/>
       <c r="D110" s="42"/>
       <c r="E110" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>4.1.11.3: (ON DOUBLE CLICK - PICKUP INGREDIENT): Translate the ingredient's transform to the player in an arc, then add it to the inventory and make it disappear.</v>
+        <f t="shared" ref="E110:E122" si="1">D81</f>
+        <v>4.1.11.1: (ON DOUBLE CLICK - BUYER): Show the buyer's 1-slot inventory that will accept a potion / close it.</v>
       </c>
     </row>
     <row r="111" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2687,7 +2691,7 @@
       <c r="D111" s="42"/>
       <c r="E111" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.4: (ON DOUBLE CLICK - LABORATORY): Show the laboratory's 3-slot inventory / close it.</v>
+        <v>4.1.11.2: (ON DOUBLE CLICK - PLAYER): Show the player's 6-slot inventory / close it.</v>
       </c>
     </row>
     <row r="112" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2696,7 +2700,7 @@
       <c r="D112" s="42"/>
       <c r="E112" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.5: (ON DRAG &amp; DROP - INGREDIENT [GARDEN TO INVENTORY]): Create the ingredient in the inventory, remove it from the garden.</v>
+        <v>4.1.11.3: (ON DOUBLE CLICK - PICKUP INGREDIENT): Translate the ingredient's transform to the player in an arc, then add it to the inventory and make it disappear.</v>
       </c>
     </row>
     <row r="113" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2705,7 +2709,7 @@
       <c r="D113" s="42"/>
       <c r="E113" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.6: (ON DRAG &amp; DROP - INGREDIENT [INVENTORY TO LABORATORY]): Create the ingredient in the laboratory, remove it from the inventory.</v>
+        <v>4.1.11.4: (ON DOUBLE CLICK - LABORATORY): Show the laboratory's 3-slot inventory / close it.</v>
       </c>
     </row>
     <row r="114" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2714,7 +2718,7 @@
       <c r="D114" s="42"/>
       <c r="E114" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.7: (ON DRAG &amp; DROP - POTION [INVENTORY TO BUYER]): Create the potion in the buyer, remove it from the inventory.</v>
+        <v>4.1.11.5: (ON DRAG &amp; DROP - INGREDIENT [GARDEN TO INVENTORY]): Create the ingredient in the inventory, remove it from the garden.</v>
       </c>
     </row>
     <row r="115" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2723,43 +2727,43 @@
       <c r="D115" s="42"/>
       <c r="E115" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.8: (ON SINGLE CLICK - MENU): Open the main menu / close it.</v>
+        <v>4.1.11.6: (ON DRAG &amp; DROP - INGREDIENT [INVENTORY TO LABORATORY]): Create the ingredient in the laboratory, remove it from the inventory.</v>
       </c>
     </row>
     <row r="116" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="42"/>
-      <c r="E116" s="40" t="str">
+      <c r="E116" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.8(a): Resume.</v>
+        <v>4.1.11.7: (ON DRAG &amp; DROP - POTION [INVENTORY TO BUYER]): Create the potion in the buyer, remove it from the inventory.</v>
       </c>
     </row>
     <row r="117" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="42"/>
-      <c r="E117" s="40" t="str">
+      <c r="E117" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.8(b): Exit.</v>
+        <v>4.1.11.8: (ON SINGLE CLICK - MENU): Open the main menu / close it.</v>
       </c>
     </row>
     <row r="118" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="42"/>
-      <c r="E118" s="41" t="str">
+      <c r="E118" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.9: (ON CHARACTER MOVE): Set player animation to walking and translate.</v>
+        <v>4.1.11.8(a): Resume.</v>
       </c>
     </row>
     <row r="119" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="42"/>
-      <c r="E119" s="41" t="str">
+      <c r="E119" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.10: (ON CHARACTER JUMP): Set player animation to jumping and translate.</v>
+        <v>4.1.11.8(b): Exit.</v>
       </c>
     </row>
     <row r="120" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2768,137 +2772,139 @@
       <c r="D120" s="42"/>
       <c r="E120" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.11: (ON CHARACTER STOP): Set player animation to idle and stop translate.</v>
+        <v>4.1.11.9: (ON CHARACTER MOVE): Set player animation to walking and translate.</v>
       </c>
     </row>
     <row r="121" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="19"/>
-    </row>
-    <row r="122" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D121" s="42"/>
+      <c r="E121" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>4.1.11.10: (ON CHARACTER JUMP): Set player animation to jumping and translate.</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E122" s="5"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>4.1.11.11: (ON CHARACTER STOP): Set player animation to idle and stop translate.</v>
+      </c>
     </row>
     <row r="123" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E123" s="5"/>
-    </row>
-    <row r="124" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="18"/>
+      <c r="E123" s="19"/>
+    </row>
+    <row r="124" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="10"/>
+      <c r="D124" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="22" t="s">
-        <v>55</v>
+      <c r="D125" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E125" s="5"/>
     </row>
     <row r="126" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="D126" s="10"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="11"/>
+      <c r="D127" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="2:5" ht="21" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="2:5" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="D128" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="D129" s="11"/>
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" spans="2:5" ht="21" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D130" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="2:5" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" ht="21" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D131" s="3"/>
+      <c r="E131" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.3">
+      <c r="D132" s="3"/>
+      <c r="E132" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="D133" s="4"/>
+      <c r="E133" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" ht="21" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="D134" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="E135" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="34" t="s">
-        <v>108</v>
+      <c r="E136" s="27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="34" t="s">
-        <v>109</v>
+      <c r="E137" s="14" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -2906,37 +2912,37 @@
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="34"/>
+      <c r="E139" s="34" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="140" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="14" t="s">
-        <v>106</v>
+      <c r="E140" s="34" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="34" t="s">
-        <v>111</v>
-      </c>
+      <c r="E141" s="34"/>
     </row>
     <row r="142" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="34" t="s">
-        <v>112</v>
+      <c r="E142" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -2944,37 +2950,37 @@
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="34"/>
+      <c r="E144" s="34" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="145" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="14" t="s">
-        <v>107</v>
+      <c r="E145" s="34" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="146" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="34" t="s">
-        <v>114</v>
-      </c>
+      <c r="E146" s="34"/>
     </row>
     <row r="147" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="34" t="s">
-        <v>115</v>
+      <c r="E147" s="14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -2982,801 +2988,817 @@
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="14"/>
-    </row>
-    <row r="150" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="E149" s="34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="27" t="s">
-        <v>43</v>
+      <c r="E150" s="34" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="151" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="E151" s="14"/>
+    </row>
+    <row r="152" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="14" t="s">
-        <v>118</v>
+      <c r="E152" s="27" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="153" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="14"/>
-    </row>
-    <row r="154" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="E153" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="27" t="s">
-        <v>44</v>
+      <c r="E154" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="155" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="E155" s="14"/>
+    </row>
+    <row r="156" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="14"/>
-    </row>
-    <row r="157" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="E156" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="27" t="s">
-        <v>45</v>
+      <c r="E157" s="35" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="E158" s="14"/>
+    </row>
+    <row r="159" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="14"/>
-    </row>
-    <row r="160" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="E159" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="27" t="s">
-        <v>46</v>
+      <c r="E160" s="14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="161" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="E161" s="14"/>
+    </row>
+    <row r="162" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="14"/>
-    </row>
-    <row r="163" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="E162" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="27" t="s">
-        <v>47</v>
+      <c r="E163" s="35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="E164" s="14"/>
+    </row>
+    <row r="165" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="14"/>
-    </row>
-    <row r="166" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="E165" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="27" t="s">
-        <v>48</v>
+      <c r="E166" s="35" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="13" t="s">
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="14"/>
+    </row>
+    <row r="168" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="B169" s="3"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="3"/>
-      <c r="E168" s="12"/>
-    </row>
-    <row r="169" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="3"/>
-      <c r="C169" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E169" s="7"/>
-    </row>
-    <row r="170" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
-      <c r="C170" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E170" s="5"/>
+      <c r="E170" s="12"/>
     </row>
     <row r="171" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B171" s="3"/>
-      <c r="C171" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E171" s="5"/>
+      <c r="C171" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171" s="7"/>
     </row>
     <row r="172" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B172" s="3"/>
       <c r="C172" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="5"/>
+    </row>
+    <row r="173" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="3"/>
+      <c r="C173" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="5"/>
+    </row>
+    <row r="174" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="3"/>
+      <c r="C174" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E172" s="5"/>
-    </row>
-    <row r="173" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="3"/>
-      <c r="C173" s="9" t="s">
+      <c r="E174" s="5"/>
+    </row>
+    <row r="175" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="3"/>
+      <c r="C175" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E173" s="5"/>
-    </row>
-    <row r="174" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="3"/>
-      <c r="C174" s="9"/>
-      <c r="E174" s="5"/>
-    </row>
-    <row r="175" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="3"/>
-      <c r="C175" s="29" t="s">
+      <c r="E175" s="5"/>
+    </row>
+    <row r="176" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="3"/>
+      <c r="C176" s="9"/>
+      <c r="E176" s="5"/>
+    </row>
+    <row r="177" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="3"/>
+      <c r="C177" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E175" s="5"/>
-    </row>
-    <row r="176" spans="2:5" ht="33" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="3"/>
-      <c r="C176" s="63" t="s">
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="2:5" ht="33" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="3"/>
+      <c r="C178" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D176" s="63"/>
-      <c r="E176" s="64"/>
-    </row>
-    <row r="177" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="3"/>
-      <c r="C177" s="9"/>
-      <c r="E177" s="5"/>
-    </row>
-    <row r="178" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="3"/>
-      <c r="C178" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" s="5"/>
+      <c r="D178" s="63"/>
+      <c r="E178" s="64"/>
     </row>
     <row r="179" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
-      <c r="C179" s="9" t="s">
+      <c r="C179" s="9"/>
+      <c r="E179" s="5"/>
+    </row>
+    <row r="180" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="3"/>
+      <c r="C180" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="5"/>
+    </row>
+    <row r="181" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="3"/>
+      <c r="C181" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="E179" s="5"/>
-    </row>
-    <row r="180" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="3"/>
-      <c r="C180" s="9"/>
-      <c r="E180" s="5"/>
-    </row>
-    <row r="181" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="3"/>
-      <c r="C181" s="29" t="s">
-        <v>10</v>
       </c>
       <c r="E181" s="5"/>
     </row>
     <row r="182" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
-      <c r="C182" s="9" t="s">
+      <c r="C182" s="9"/>
+      <c r="E182" s="5"/>
+    </row>
+    <row r="183" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="3"/>
+      <c r="C183" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="5"/>
+    </row>
+    <row r="184" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="3"/>
+      <c r="C184" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="E182" s="5"/>
-    </row>
-    <row r="183" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="3"/>
-      <c r="C183" s="9"/>
-      <c r="E183" s="5"/>
-    </row>
-    <row r="184" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="3"/>
-      <c r="C184" s="29" t="s">
-        <v>12</v>
       </c>
       <c r="E184" s="5"/>
     </row>
     <row r="185" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
-      <c r="C185" s="65" t="s">
+      <c r="C185" s="9"/>
+      <c r="E185" s="5"/>
+    </row>
+    <row r="186" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="3"/>
+      <c r="C186" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" s="5"/>
+    </row>
+    <row r="187" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="3"/>
+      <c r="C187" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D185" s="65"/>
-      <c r="E185" s="66"/>
-    </row>
-    <row r="186" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="3"/>
-      <c r="C186" s="9"/>
-      <c r="E186" s="5"/>
-    </row>
-    <row r="187" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="3"/>
-      <c r="C187" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E187" s="5"/>
+      <c r="D187" s="65"/>
+      <c r="E187" s="66"/>
     </row>
     <row r="188" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
-      <c r="C188" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="D188" s="63"/>
-      <c r="E188" s="64"/>
-    </row>
-    <row r="189" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="9"/>
+      <c r="E188" s="5"/>
+    </row>
+    <row r="189" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B189" s="3"/>
-      <c r="C189" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="D189" s="63"/>
-      <c r="E189" s="64"/>
+      <c r="C189" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" s="5"/>
     </row>
     <row r="190" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
       <c r="C190" s="63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D190" s="63"/>
       <c r="E190" s="64"/>
     </row>
     <row r="191" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
-      <c r="C191" s="10"/>
-      <c r="E191" s="5"/>
-    </row>
-    <row r="192" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C191" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D191" s="63"/>
+      <c r="E191" s="64"/>
+    </row>
+    <row r="192" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
-      <c r="C192" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E192" s="5"/>
+      <c r="C192" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D192" s="63"/>
+      <c r="E192" s="64"/>
     </row>
     <row r="193" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
-      <c r="C193" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="C193" s="10"/>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B194" s="3"/>
-      <c r="C194" s="36" t="str">
-        <f>D23</f>
-        <v>3.1.2.5 (d): Animation: Player (idle, walk, jump), ingredients (move onto player and disappear [when picked up])</v>
+      <c r="C194" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="E194" s="5"/>
     </row>
     <row r="195" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
-      <c r="C195" s="36" t="str">
-        <f>D24</f>
-        <v>3.1.2.5 (d)(i): Player (idle, walk, jump).</v>
+      <c r="C195" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="E195" s="5"/>
     </row>
     <row r="196" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
       <c r="C196" s="36" t="str">
+        <f>D23</f>
+        <v>3.1.2.5 (d): Animation: Player (idle, walk, jump), ingredients (move onto player and disappear [when picked up])</v>
+      </c>
+      <c r="E196" s="5"/>
+    </row>
+    <row r="197" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="3"/>
+      <c r="C197" s="36" t="str">
+        <f>D24</f>
+        <v>3.1.2.5 (d)(i): Player (idle, walk, jump).</v>
+      </c>
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="3"/>
+      <c r="C198" s="36" t="str">
         <f>D25</f>
         <v>3.1.2.5 (d)(ii): Ingredients (translate on top of player and disappear when picked up)</v>
       </c>
-      <c r="E196" s="5"/>
-    </row>
-    <row r="197" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="3"/>
-      <c r="C197" s="10"/>
-      <c r="E197" s="5"/>
-    </row>
-    <row r="198" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="3"/>
-      <c r="C198" s="29" t="s">
-        <v>15</v>
-      </c>
       <c r="E198" s="5"/>
     </row>
     <row r="199" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
-      <c r="C199" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="C199" s="10"/>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B200" s="3"/>
-      <c r="C200" s="15" t="s">
-        <v>141</v>
+      <c r="C200" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="E200" s="5"/>
     </row>
     <row r="201" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
-      <c r="C201" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="D201" s="61"/>
-      <c r="E201" s="62"/>
+      <c r="C201" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201" s="5"/>
     </row>
     <row r="202" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
-      <c r="C202" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="D202" s="59"/>
-      <c r="E202" s="60"/>
+      <c r="C202" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E202" s="5"/>
     </row>
     <row r="203" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
-      <c r="C203" s="10"/>
-      <c r="E203" s="5"/>
-    </row>
-    <row r="204" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C203" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D203" s="61"/>
+      <c r="E203" s="62"/>
+    </row>
+    <row r="204" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
-      <c r="C204" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E204" s="5"/>
+      <c r="C204" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D204" s="59"/>
+      <c r="E204" s="60"/>
     </row>
     <row r="205" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
-      <c r="C205" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="C205" s="10"/>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B206" s="3"/>
-      <c r="C206" s="15" t="s">
-        <v>134</v>
+      <c r="C206" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="E206" s="5"/>
     </row>
     <row r="207" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
-      <c r="C207" s="15" t="s">
-        <v>133</v>
+      <c r="C207" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="E207" s="5"/>
     </row>
     <row r="208" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
       <c r="C208" s="15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E208" s="5"/>
     </row>
     <row r="209" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
       <c r="C209" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E209" s="5"/>
     </row>
     <row r="210" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="C210" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E210" s="5"/>
     </row>
     <row r="211" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
       <c r="C211" s="15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E211" s="5"/>
     </row>
     <row r="212" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
       <c r="C212" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E212" s="5"/>
     </row>
     <row r="213" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
       <c r="C213" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E213" s="5"/>
     </row>
     <row r="214" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
-      <c r="C214" s="37" t="s">
-        <v>139</v>
+      <c r="C214" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="E214" s="5"/>
     </row>
     <row r="215" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
-      <c r="C215" s="37" t="s">
-        <v>140</v>
+      <c r="C215" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="E215" s="5"/>
     </row>
     <row r="216" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
-      <c r="C216" s="15" t="s">
-        <v>174</v>
+      <c r="C216" s="37" t="s">
+        <v>139</v>
       </c>
       <c r="E216" s="5"/>
     </row>
     <row r="217" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
-      <c r="C217" s="15" t="s">
-        <v>173</v>
+      <c r="C217" s="37" t="s">
+        <v>140</v>
       </c>
       <c r="E217" s="5"/>
     </row>
     <row r="218" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
       <c r="C218" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E218" s="5"/>
     </row>
     <row r="219" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
-      <c r="C219" s="15"/>
+      <c r="C219" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B220" s="3"/>
-      <c r="C220" s="30" t="s">
-        <v>18</v>
+      <c r="C220" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B221" s="3"/>
-      <c r="C221" s="29" t="s">
-        <v>19</v>
-      </c>
+      <c r="C221" s="15"/>
       <c r="E221" s="5"/>
     </row>
     <row r="222" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B222" s="3"/>
-      <c r="C222" s="29" t="s">
+      <c r="C222" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="5"/>
+    </row>
+    <row r="223" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="3"/>
+      <c r="C223" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E223" s="5"/>
+    </row>
+    <row r="224" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="3"/>
+      <c r="C224" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E222" s="5"/>
-    </row>
-    <row r="223" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="3"/>
-      <c r="C223" s="57" t="s">
+      <c r="E224" s="5"/>
+    </row>
+    <row r="225" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="3"/>
+      <c r="C225" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D223" s="57"/>
-      <c r="E223" s="58"/>
-    </row>
-    <row r="224" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="3"/>
-      <c r="C224" s="10"/>
-      <c r="E224" s="5"/>
-    </row>
-    <row r="225" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="3"/>
-      <c r="C225" s="29" t="s">
+      <c r="D225" s="57"/>
+      <c r="E225" s="58"/>
+    </row>
+    <row r="226" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="3"/>
+      <c r="C226" s="10"/>
+      <c r="E226" s="5"/>
+    </row>
+    <row r="227" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="3"/>
+      <c r="C227" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E225" s="5"/>
-    </row>
-    <row r="226" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="3"/>
-      <c r="C226" s="29" t="s">
+      <c r="E227" s="5"/>
+    </row>
+    <row r="228" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="3"/>
+      <c r="C228" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E226" s="5"/>
-    </row>
-    <row r="227" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="3"/>
-      <c r="C227" s="57" t="s">
+      <c r="E228" s="5"/>
+    </row>
+    <row r="229" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="3"/>
+      <c r="C229" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="D227" s="57"/>
-      <c r="E227" s="58"/>
-    </row>
-    <row r="228" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="3"/>
-      <c r="C228" s="10"/>
-      <c r="E228" s="5"/>
-    </row>
-    <row r="229" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="3"/>
-      <c r="C229" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E229" s="5"/>
+      <c r="D229" s="57"/>
+      <c r="E229" s="58"/>
     </row>
     <row r="230" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B230" s="3"/>
-      <c r="C230" s="57" t="s">
+      <c r="C230" s="10"/>
+      <c r="E230" s="5"/>
+    </row>
+    <row r="231" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="3"/>
+      <c r="C231" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E231" s="5"/>
+    </row>
+    <row r="232" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="3"/>
+      <c r="C232" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D230" s="57"/>
-      <c r="E230" s="58"/>
-    </row>
-    <row r="231" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="3"/>
-      <c r="C231" s="10"/>
-      <c r="E231" s="5"/>
-    </row>
-    <row r="232" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="3"/>
-      <c r="C232" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E232" s="5"/>
+      <c r="D232" s="57"/>
+      <c r="E232" s="58"/>
     </row>
     <row r="233" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B233" s="3"/>
-      <c r="C233" s="57" t="s">
+      <c r="C233" s="10"/>
+      <c r="E233" s="5"/>
+    </row>
+    <row r="234" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="3"/>
+      <c r="C234" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E234" s="5"/>
+    </row>
+    <row r="235" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="3"/>
+      <c r="C235" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D233" s="57"/>
-      <c r="E233" s="58"/>
-    </row>
-    <row r="234" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="3"/>
-      <c r="C234" s="10"/>
-      <c r="E234" s="5"/>
-    </row>
-    <row r="235" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="3"/>
-      <c r="C235" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E235" s="5"/>
+      <c r="D235" s="57"/>
+      <c r="E235" s="58"/>
     </row>
     <row r="236" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B236" s="3"/>
-      <c r="C236" s="57" t="s">
+      <c r="C236" s="10"/>
+      <c r="E236" s="5"/>
+    </row>
+    <row r="237" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="3"/>
+      <c r="C237" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E237" s="5"/>
+    </row>
+    <row r="238" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="3"/>
+      <c r="C238" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D236" s="57"/>
-      <c r="E236" s="58"/>
-    </row>
-    <row r="237" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="3"/>
-      <c r="C237" s="10"/>
-      <c r="E237" s="5"/>
-    </row>
-    <row r="238" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="3"/>
-      <c r="C238" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E238" s="5"/>
+      <c r="D238" s="57"/>
+      <c r="E238" s="58"/>
     </row>
     <row r="239" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B239" s="3"/>
-      <c r="C239" s="57" t="s">
+      <c r="C239" s="10"/>
+      <c r="E239" s="5"/>
+    </row>
+    <row r="240" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="3"/>
+      <c r="C240" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E240" s="5"/>
+    </row>
+    <row r="241" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="3"/>
+      <c r="C241" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D239" s="57"/>
-      <c r="E239" s="58"/>
-    </row>
-    <row r="240" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="3"/>
-      <c r="C240" s="10"/>
-      <c r="E240" s="5"/>
-    </row>
-    <row r="241" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="3"/>
-      <c r="C241" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E241" s="5"/>
+      <c r="D241" s="57"/>
+      <c r="E241" s="58"/>
     </row>
     <row r="242" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B242" s="3"/>
-      <c r="C242" s="57" t="s">
+      <c r="C242" s="10"/>
+      <c r="E242" s="5"/>
+    </row>
+    <row r="243" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="3"/>
+      <c r="C243" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E243" s="5"/>
+    </row>
+    <row r="244" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="3"/>
+      <c r="C244" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D242" s="57"/>
-      <c r="E242" s="58"/>
-    </row>
-    <row r="243" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="3"/>
-      <c r="E243" s="5"/>
-    </row>
-    <row r="244" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="3"/>
-      <c r="C244" s="28" t="s">
+      <c r="D244" s="57"/>
+      <c r="E244" s="58"/>
+    </row>
+    <row r="245" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="3"/>
+      <c r="E245" s="5"/>
+    </row>
+    <row r="246" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="3"/>
+      <c r="C246" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E244" s="5"/>
-    </row>
-    <row r="245" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="3"/>
-      <c r="C245" s="29" t="s">
+      <c r="E246" s="5"/>
+    </row>
+    <row r="247" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="3"/>
+      <c r="C247" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E245" s="5"/>
-    </row>
-    <row r="246" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="3"/>
-      <c r="C246" s="57" t="s">
+      <c r="E247" s="5"/>
+    </row>
+    <row r="248" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="3"/>
+      <c r="C248" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D246" s="57"/>
-      <c r="E246" s="58"/>
-    </row>
-    <row r="247" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="3"/>
-      <c r="C247" s="10"/>
-      <c r="E247" s="5"/>
-    </row>
-    <row r="248" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B248" s="3"/>
-      <c r="C248" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E248" s="5"/>
+      <c r="D248" s="57"/>
+      <c r="E248" s="58"/>
     </row>
     <row r="249" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B249" s="3"/>
-      <c r="C249" s="57" t="s">
+      <c r="C249" s="10"/>
+      <c r="E249" s="5"/>
+    </row>
+    <row r="250" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="3"/>
+      <c r="C250" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E250" s="5"/>
+    </row>
+    <row r="251" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="3"/>
+      <c r="C251" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D249" s="57"/>
-      <c r="E249" s="58"/>
-    </row>
-    <row r="250" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="3"/>
-      <c r="C250" s="10"/>
-      <c r="E250" s="5"/>
-    </row>
-    <row r="251" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="3"/>
-      <c r="C251" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E251" s="5"/>
+      <c r="D251" s="57"/>
+      <c r="E251" s="58"/>
     </row>
     <row r="252" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B252" s="3"/>
-      <c r="C252" s="57" t="s">
+      <c r="C252" s="10"/>
+      <c r="E252" s="5"/>
+    </row>
+    <row r="253" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="3"/>
+      <c r="C253" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E253" s="5"/>
+    </row>
+    <row r="254" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="3"/>
+      <c r="C254" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D252" s="57"/>
-      <c r="E252" s="58"/>
-    </row>
-    <row r="253" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="3"/>
-      <c r="E253" s="5"/>
-    </row>
-    <row r="254" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="3"/>
-      <c r="C254" s="28" t="s">
+      <c r="D254" s="57"/>
+      <c r="E254" s="58"/>
+    </row>
+    <row r="255" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="3"/>
+      <c r="E255" s="5"/>
+    </row>
+    <row r="256" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="3"/>
+      <c r="C256" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E254" s="5"/>
-    </row>
-    <row r="255" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="3"/>
-      <c r="C255" s="29" t="s">
+      <c r="E256" s="5"/>
+    </row>
+    <row r="257" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="3"/>
+      <c r="C257" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E255" s="5"/>
-    </row>
-    <row r="256" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="3"/>
-      <c r="C256" s="57" t="s">
+      <c r="E257" s="5"/>
+    </row>
+    <row r="258" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="3"/>
+      <c r="C258" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D256" s="57"/>
-      <c r="E256" s="58"/>
-    </row>
-    <row r="257" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="3"/>
-      <c r="E257" s="5"/>
-    </row>
-    <row r="258" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="3"/>
-      <c r="C258" s="28" t="s">
+      <c r="D258" s="57"/>
+      <c r="E258" s="58"/>
+    </row>
+    <row r="259" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="3"/>
+      <c r="E259" s="5"/>
+    </row>
+    <row r="260" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="3"/>
+      <c r="C260" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E258" s="5"/>
-    </row>
-    <row r="259" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="3"/>
-      <c r="C259" s="29" t="s">
+      <c r="E260" s="5"/>
+    </row>
+    <row r="261" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="3"/>
+      <c r="C261" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E259" s="5"/>
-    </row>
-    <row r="260" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="3"/>
-      <c r="C260" s="57" t="s">
+      <c r="E261" s="5"/>
+    </row>
+    <row r="262" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="3"/>
+      <c r="C262" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="D260" s="57"/>
-      <c r="E260" s="58"/>
-    </row>
-    <row r="261" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="3"/>
-      <c r="C261" s="10"/>
-      <c r="E261" s="5"/>
-    </row>
-    <row r="262" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="3"/>
-      <c r="C262" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E262" s="5"/>
+      <c r="D262" s="57"/>
+      <c r="E262" s="58"/>
     </row>
     <row r="263" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B263" s="3"/>
-      <c r="C263" s="57" t="s">
+      <c r="C263" s="10"/>
+      <c r="E263" s="5"/>
+    </row>
+    <row r="264" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="3"/>
+      <c r="C264" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E264" s="5"/>
+    </row>
+    <row r="265" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="3"/>
+      <c r="C265" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D263" s="57"/>
-      <c r="E263" s="58"/>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B264" s="4"/>
-      <c r="C264" s="8"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="6"/>
+      <c r="D265" s="57"/>
+      <c r="E265" s="58"/>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B266" s="4"/>
+      <c r="C266" s="8"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="74">
@@ -3801,59 +3823,59 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C176:E176"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="C188:E188"/>
-    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="C187:E187"/>
     <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C223:E223"/>
-    <mergeCell ref="C227:E227"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="C233:E233"/>
-    <mergeCell ref="C236:E236"/>
-    <mergeCell ref="C260:E260"/>
-    <mergeCell ref="C263:E263"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C192:E192"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="C232:E232"/>
+    <mergeCell ref="C235:E235"/>
+    <mergeCell ref="C238:E238"/>
+    <mergeCell ref="C262:E262"/>
+    <mergeCell ref="C265:E265"/>
+    <mergeCell ref="C204:E204"/>
+    <mergeCell ref="C203:E203"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="C239:E239"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="C249:E249"/>
-    <mergeCell ref="C252:E252"/>
-    <mergeCell ref="C256:E256"/>
-    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="C244:E244"/>
+    <mergeCell ref="C248:E248"/>
+    <mergeCell ref="C251:E251"/>
+    <mergeCell ref="C254:E254"/>
+    <mergeCell ref="C258:E258"/>
+    <mergeCell ref="D87:E87"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D99:E99"/>
     <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
     <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D88:E88"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
